--- a/Project/Assets/output/hill_climbing.xlsx
+++ b/Project/Assets/output/hill_climbing.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dbfb2b22-001d-43cd-ab58-65c5a0af74ce</t>
+          <t>4e234a96-3fc7-4150-bbae-f466e2b7a244</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,7 +517,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dbfb2b22-001d-43cd-ab58-65c5a0af74ce</t>
+          <t>4e234a96-3fc7-4150-bbae-f466e2b7a244</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dbfb2b22-001d-43cd-ab58-65c5a0af74ce</t>
+          <t>4e234a96-3fc7-4150-bbae-f466e2b7a244</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,7 +587,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>e5120a87-fe6f-4f95-bf08-bb7e0921805a</t>
+          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -622,17 +622,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>e5120a87-fe6f-4f95-bf08-bb7e0921805a</t>
+          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>City_61-&gt;City_54</t>
+          <t>City_61-&gt;City_53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A140112</t>
+          <t>A190225</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>City_54</t>
+          <t>City_53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>e5120a87-fe6f-4f95-bf08-bb7e0921805a</t>
+          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -692,17 +692,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>e5120a87-fe6f-4f95-bf08-bb7e0921805a</t>
+          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>City_61-&gt;City_53</t>
+          <t>City_61-&gt;City_54</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A190225</t>
+          <t>A140112</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>City_53</t>
+          <t>City_54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>e5120a87-fe6f-4f95-bf08-bb7e0921805a</t>
+          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>e5120a87-fe6f-4f95-bf08-bb7e0921805a</t>
+          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -797,7 +797,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bbdb9f2f-31c5-41ee-8905-34588914fd89</t>
+          <t>fce17ca2-cb24-4cec-a842-52c2f16cbf6b</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">

--- a/Project/Assets/output/hill_climbing.xlsx
+++ b/Project/Assets/output/hill_climbing.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4e234a96-3fc7-4150-bbae-f466e2b7a244</t>
+          <t>e1bd1b43-35d7-44bf-ac31-37c7359568bf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,27 +507,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>92.76000000000001</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4e234a96-3fc7-4150-bbae-f466e2b7a244</t>
+          <t>e1bd1b43-35d7-44bf-ac31-37c7359568bf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>City_61-&gt;City_54</t>
+          <t>City_61-&gt;City_53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A140112</t>
+          <t>A190223</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,32 +537,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>City_54</t>
+          <t>City_53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>92.76000000000001</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4e234a96-3fc7-4150-bbae-f466e2b7a244</t>
+          <t>e1bd1b43-35d7-44bf-ac31-37c7359568bf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>City_61-&gt;City_54</t>
+          <t>City_61-&gt;City_53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A140112</t>
+          <t>A190225</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -572,22 +572,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>City_54</t>
+          <t>City_53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>92.76000000000001</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
+          <t>087fa8cc-6e52-40c2-a202-2c578f2b0ee0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -622,7 +622,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
+          <t>087fa8cc-6e52-40c2-a202-2c578f2b0ee0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A190225</t>
+          <t>A190226</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
+          <t>087fa8cc-6e52-40c2-a202-2c578f2b0ee0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A190223</t>
+          <t>A190226</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -692,7 +692,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
+          <t>59996651-2807-4a8e-adcd-d4b361197611</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -717,17 +717,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>92.40000000000001</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
+          <t>59996651-2807-4a8e-adcd-d4b361197611</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -752,27 +752,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>92.40000000000001</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>447eaae7-2d5b-4151-8fa8-6f885d38d759</t>
+          <t>eea2f4fd-a77b-4bf5-af5e-41ef37be5b21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>City_61-&gt;City_53</t>
+          <t>City_61-&gt;City_54</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A190226</t>
+          <t>A140112</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -782,32 +782,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>City_53</t>
+          <t>City_54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>92.40000000000001</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fce17ca2-cb24-4cec-a842-52c2f16cbf6b</t>
+          <t>27e286d3-fa18-4cf9-8b7d-0b03cf728630</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>City_61-&gt;City_53</t>
+          <t>City_61-&gt;City_54</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A190226</t>
+          <t>A140112</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -817,16 +817,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>City_53</t>
+          <t>City_54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>dummy</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.64</v>
+        <v>61.84</v>
       </c>
     </row>
   </sheetData>
